--- a/results/cwk1.xlsx
+++ b/results/cwk1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\hpc\HPCE-2018-mingw64-tbb\mingw\msys64\home\hpce-2018-cw1-hs2715\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E808828-825C-4F45-8BB7-5CDBFE2BAF61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF8060-978C-4FF4-B0C8-585081FE3568}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150" xr2:uid="{D09A54D7-6382-4584-8277-FC6138804602}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150" activeTab="1" xr2:uid="{D09A54D7-6382-4584-8277-FC6138804602}"/>
   </bookViews>
   <sheets>
     <sheet name="max_iter" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>Max iterations</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>log debug</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>Inner</t>
@@ -5182,34 +5179,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2000000000000008E-2</c:v>
+                  <c:v>1.493150684931507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46699999999999997</c:v>
+                  <c:v>2.1822784810126583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3290000000000002</c:v>
+                  <c:v>3.0015060240963853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.54</c:v>
+                  <c:v>3.6906779661016951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.76</c:v>
+                  <c:v>3.5841924398625427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3559999999999999</c:v>
+                  <c:v>3.5074906367041199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9620000000000006</c:v>
+                  <c:v>3.3222148098732487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0470000000000006</c:v>
+                  <c:v>3.4998618402873722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.792000000000002</c:v>
+                  <c:v>3.6175360710321867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.624000000000002</c:v>
+                  <c:v>3.6536018871348213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,34 +5680,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.2000000000000008E-2</c:v>
+                  <c:v>1.493150684931507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46699999999999997</c:v>
+                  <c:v>2.1822784810126583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3290000000000002</c:v>
+                  <c:v>3.0015060240963853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.54</c:v>
+                  <c:v>3.6906779661016951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.76</c:v>
+                  <c:v>3.5841924398625427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3559999999999999</c:v>
+                  <c:v>3.5074906367041199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9620000000000006</c:v>
+                  <c:v>3.3222148098732487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0470000000000006</c:v>
+                  <c:v>3.4998618402873722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.792000000000002</c:v>
+                  <c:v>3.6175360710321867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.624000000000002</c:v>
+                  <c:v>3.6536018871348213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15228,16 +15225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146171</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>446209</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15264,16 +15261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15765,7 +15762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDF5C4-9BCF-4A91-A533-267411C8FC8A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BQ168" sqref="BQ168"/>
     </sheetView>
   </sheetViews>
@@ -16024,10 +16021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E07F24-6CAA-4567-B328-6DB500E968AB}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="BA129" sqref="BA129"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16064,8 +16061,8 @@
         <v>-0.66154350639539516</v>
       </c>
       <c r="E2">
-        <f>B2-C2</f>
-        <v>7.2000000000000008E-2</v>
+        <f>+B2/C2</f>
+        <v>1.493150684931507</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16083,8 +16080,8 @@
         <v>-6.4492734175287211E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="1">B3-C3</f>
-        <v>0.46699999999999997</v>
+        <f t="shared" ref="E3:E11" si="1">+B3/C3</f>
+        <v>2.1822784810126583</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16103,7 +16100,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.3290000000000002</v>
+        <v>3.0015060240963853</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16122,7 +16119,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>3.6906779661016951</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16141,7 +16138,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>3.76</v>
+        <v>3.5841924398625427</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16160,7 +16157,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>5.3559999999999999</v>
+        <v>3.5074906367041199</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16179,7 +16176,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6.9620000000000006</v>
+        <v>3.3222148098732487</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16198,7 +16195,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9.0470000000000006</v>
+        <v>3.4998618402873722</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16217,7 +16214,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>11.792000000000002</v>
+        <v>3.6175360710321867</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16236,12 +16233,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>14.624000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>9</v>
+        <v>3.6536018871348213</v>
       </c>
     </row>
   </sheetData>
@@ -16272,16 +16264,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16434,19 +16426,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -16592,19 +16584,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16748,19 +16740,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -16901,19 +16893,19 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
       <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">

--- a/results/cwk1.xlsx
+++ b/results/cwk1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\hpc\HPCE-2018-mingw64-tbb\mingw\msys64\home\hpce-2018-cw1-hs2715\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF8060-978C-4FF4-B0C8-585081FE3568}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A2AEB-E9B8-4100-978B-AEA3F09B37B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150" activeTab="1" xr2:uid="{D09A54D7-6382-4584-8277-FC6138804602}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Max iterations</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Dimensions</t>
+  </si>
+  <si>
+    <t>log speedup</t>
   </si>
 </sst>
 </file>
@@ -5636,78 +5639,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scale!$B$2:$B$11</c:f>
+              <c:f>scale!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.218</c:v>
+                  <c:v>-0.66154350639539516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86199999999999999</c:v>
+                  <c:v>-6.4492734175287211E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9930000000000001</c:v>
+                  <c:v>0.29950729870048765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.484</c:v>
+                  <c:v>0.54207814633562557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2149999999999999</c:v>
+                  <c:v>0.7172543127625497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.492</c:v>
+                  <c:v>0.87459776870319972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9600000000000009</c:v>
+                  <c:v>0.99825933842369874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.666</c:v>
+                  <c:v>1.1026394836913</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.297000000000001</c:v>
+                  <c:v>1.2121076655476588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.135000000000002</c:v>
+                  <c:v>1.3039516339434505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scale!$E$2:$E$11</c:f>
+              <c:f>scale!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.493150684931507</c:v>
+                  <c:v>0.1741036378201678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1822784810126583</c:v>
+                  <c:v>0.33891017019825259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0015060240963853</c:v>
+                  <c:v>0.47733921933247009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6906779661016951</c:v>
+                  <c:v>0.56710615203755665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5841924398625427</c:v>
+                  <c:v>0.55439131944062359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5074906367041199</c:v>
+                  <c:v>0.544996520346681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3222148098732487</c:v>
+                  <c:v>0.52142770991143805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4998618402873722</c:v>
+                  <c:v>0.54405090058310068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6175360710321867</c:v>
+                  <c:v>0.55841287023257713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6536018871348213</c:v>
+                  <c:v>0.56272122291797966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16021,15 +16024,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E07F24-6CAA-4567-B328-6DB500E968AB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16045,8 +16048,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -16064,8 +16070,12 @@
         <f>+B2/C2</f>
         <v>1.493150684931507</v>
       </c>
+      <c r="F2">
+        <f>LOG(E2)</f>
+        <v>0.1741036378201678</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -16083,8 +16093,12 @@
         <f t="shared" ref="E3:E11" si="1">+B3/C3</f>
         <v>2.1822784810126583</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="2">LOG(E3)</f>
+        <v>0.33891017019825259</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -16102,8 +16116,12 @@
         <f t="shared" si="1"/>
         <v>3.0015060240963853</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.47733921933247009</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -16121,8 +16139,12 @@
         <f t="shared" si="1"/>
         <v>3.6906779661016951</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.56710615203755665</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -16140,8 +16162,12 @@
         <f t="shared" si="1"/>
         <v>3.5841924398625427</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.55439131944062359</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -16159,8 +16185,12 @@
         <f t="shared" si="1"/>
         <v>3.5074906367041199</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.544996520346681</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -16178,8 +16208,12 @@
         <f t="shared" si="1"/>
         <v>3.3222148098732487</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.52142770991143805</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -16197,8 +16231,12 @@
         <f t="shared" si="1"/>
         <v>3.4998618402873722</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.54405090058310068</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -16216,8 +16254,12 @@
         <f t="shared" si="1"/>
         <v>3.6175360710321867</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.55841287023257713</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -16234,6 +16276,10 @@
       <c r="E11">
         <f t="shared" si="1"/>
         <v>3.6536018871348213</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.56272122291797966</v>
       </c>
     </row>
   </sheetData>
